--- a/hiqu/HR/Performance Evaluation/October 2024/Dev/Fawad Ahmad.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/Dev/Fawad Ahmad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56D82B-EE24-4E95-8618-8FA0B2384FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0E87EF-90DD-4EE8-844E-67625B77289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t>Employee Name</t>
   </si>
@@ -346,17 +346,33 @@
   </si>
   <si>
     <t>Period: September 2024 -June 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APWORKS PHASE2                  </t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Generate Client Schedule Lines based on media type</t>
+  </si>
+  <si>
+    <t>UDF &amp; Naming Convention in Vendor Portal - Proposal Import/exp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +470,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -651,7 +673,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -855,6 +877,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2936,7 +3012,7 @@
       </c>
       <c r="C10" s="62">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.25479452054794521</v>
+        <v>0.28493150684931506</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -3886,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18338F37-384A-44D5-99F6-409C4E0A324F}">
   <dimension ref="B2:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3979,7 @@
     <col min="11" max="11" width="2.7109375" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="6"/>
     <col min="13" max="13" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="93" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" style="6" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -4074,7 +4150,7 @@
       <c r="M7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="87" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -4120,7 +4196,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="88"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="8"/>
@@ -4148,11 +4224,11 @@
         <v>70</v>
       </c>
       <c r="M9" s="52">
-        <v>172</v>
-      </c>
-      <c r="N9" s="40">
-        <f t="shared" ref="N9" si="0">IF(L9=0,0,(M9-L9)/L9)</f>
-        <v>1.4571428571428571</v>
+        <v>179</v>
+      </c>
+      <c r="N9" s="89">
+        <f>L9-M9</f>
+        <v>-109</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="52">
@@ -4161,14 +4237,11 @@
       <c r="Q9" s="52">
         <v>35</v>
       </c>
-      <c r="R9" s="40">
-        <f t="shared" ref="R9" si="1">IF(P9=0,0,(Q9-P9)/P9)</f>
-        <v>0</v>
-      </c>
+      <c r="R9" s="40"/>
       <c r="S9" s="54"/>
       <c r="T9" s="55">
         <f>D9+E9+F9+G9+I9+J9+M9+Q9</f>
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="U9" s="53"/>
       <c r="V9" s="40"/>
@@ -4201,7 +4274,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="88"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -4230,8 +4303,8 @@
       <c r="K11" s="5"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="16">
-        <f t="shared" ref="N11" si="2">IF(L11=0,0,(M11-L11)/L11)</f>
+      <c r="N11" s="90">
+        <f t="shared" ref="N11" si="0">IF(L11=0,0,(M11-L11)/L11)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2"/>
@@ -4241,10 +4314,7 @@
       <c r="Q11" s="2">
         <v>44</v>
       </c>
-      <c r="R11" s="16">
-        <f t="shared" ref="R11" si="3">IF(P11=0,0,(Q11-P11)/P11)</f>
-        <v>0</v>
-      </c>
+      <c r="R11" s="16"/>
       <c r="S11" s="2"/>
       <c r="T11" s="34">
         <f>D11+E11+F11+G11+I11+J11+M11+Q11</f>
@@ -4274,7 +4344,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="88"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -4307,7 +4377,7 @@
       <c r="M13" s="2">
         <v>29</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="90"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -4337,7 +4407,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="17"/>
+      <c r="N14" s="91"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -4388,11 +4458,11 @@
       </c>
       <c r="M15" s="20">
         <f>SUM(M8:M14)</f>
-        <v>201</v>
-      </c>
-      <c r="N15" s="20">
-        <f>SUM(N8:N14)</f>
-        <v>1.4571428571428571</v>
+        <v>208</v>
+      </c>
+      <c r="N15" s="92">
+        <f>L15-M15</f>
+        <v>-138</v>
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="20">
@@ -4403,31 +4473,28 @@
         <f>SUM(Q8:Q14)</f>
         <v>79</v>
       </c>
-      <c r="R15" s="21">
-        <f t="shared" ref="R15" si="4">IF(P15=0,0,(Q15-P15)/P15)</f>
-        <v>0</v>
-      </c>
+      <c r="R15" s="21"/>
       <c r="S15" s="20"/>
       <c r="T15" s="35">
         <f>SUM(T8:T14)</f>
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20">
-        <f t="shared" ref="W15:Z15" si="5">SUM(W8:W14)</f>
+        <f t="shared" ref="W15:Z15" si="1">SUM(W8:W14)</f>
         <v>1</v>
       </c>
       <c r="X15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4457,7 +4524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:Y14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -4947,10 +5014,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B323DBAA-2AFD-4AB6-A5BF-E2CBDB6CD2DB}">
-  <dimension ref="B2:Y14"/>
+  <dimension ref="B2:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,13 +5032,13 @@
     <col min="10" max="10" width="10.5703125" style="6" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="6"/>
     <col min="12" max="12" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="86" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.28515625" style="6" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="93" customWidth="1"/>
     <col min="20" max="20" width="2.28515625" style="6" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" style="6" customWidth="1"/>
     <col min="22" max="24" width="9.140625" style="6"/>
@@ -5094,7 +5161,7 @@
       </c>
       <c r="P6" s="80"/>
       <c r="Q6" s="80"/>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="95" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="14"/>
@@ -5131,8 +5198,8 @@
       <c r="L7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>21</v>
+      <c r="M7" s="81" t="s">
+        <v>104</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>18</v>
@@ -5143,7 +5210,7 @@
       <c r="Q7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="96" t="s">
         <v>91</v>
       </c>
       <c r="U7" s="15" t="s">
@@ -5176,11 +5243,11 @@
       <c r="J8" s="5"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="33"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="8"/>
-      <c r="S8" s="33"/>
+      <c r="S8" s="88"/>
       <c r="U8" s="8"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -5203,18 +5270,21 @@
         <v>70</v>
       </c>
       <c r="L9" s="2">
-        <v>66</v>
-      </c>
-      <c r="M9" s="40"/>
+        <v>73</v>
+      </c>
+      <c r="M9" s="94">
+        <f>K9-L9</f>
+        <v>-3</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="34">
+      <c r="S9" s="97">
         <f>D9+E9+F9+G9+I9+J9+L9+P9</f>
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="2"/>
@@ -5223,28 +5293,33 @@
       <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="46"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>35</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="82"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2">
+        <v>14</v>
+      </c>
       <c r="Q10" s="16"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="8"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="97">
+        <f>D10+E10+F10+G10+I10+J10+L10+P10</f>
+        <v>49</v>
+      </c>
+      <c r="U10" s="16"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -5252,33 +5327,29 @@
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>100</v>
+      <c r="C11" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="51">
-        <v>35</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="2"/>
+      <c r="L11" s="2">
+        <v>57</v>
+      </c>
+      <c r="M11" s="82"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2">
-        <v>29</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="34">
+      <c r="R11" s="7"/>
+      <c r="S11" s="97">
         <f>D11+E11+F11+G11+I11+J11+L11+P11</f>
-        <v>64</v>
-      </c>
-      <c r="T11" s="2"/>
+        <v>57</v>
+      </c>
       <c r="U11" s="16"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -5287,7 +5358,6 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -5297,100 +5367,193 @@
       <c r="J12" s="5"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="82"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="8"/>
+      <c r="P12" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="97">
+        <f>D12+E12+F12+G12+I12+J12+L12+P12</f>
+        <v>8</v>
+      </c>
+      <c r="U12" s="16"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="18"/>
-    </row>
-    <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="97">
+        <f>D13+E13+F13+G13+I13+J13+L13+P13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="97">
+        <f>D14+E14+F14+G14+I14+J14+L14+P14</f>
+        <v>40</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="18"/>
+    </row>
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20">
-        <f>SUM(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" ref="E13:P13" si="0">SUM(E8:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20">
-        <f t="shared" si="0"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20">
+        <f>SUM(D8:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <f>SUM(E8:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <f>SUM(F8:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f>SUM(G8:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20">
+        <f>SUM(I8:I15)</f>
         <v>35</v>
       </c>
-      <c r="J13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" si="0"/>
+      <c r="J16" s="20">
+        <f>SUM(J8:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <f>SUM(K8:K15)</f>
         <v>70</v>
       </c>
-      <c r="L13" s="20">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="M13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="Q13" s="21">
-        <f t="shared" ref="Q13" si="1">IF(O13=0,0,(P13-O13)/O13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="35">
-        <f t="shared" ref="S13" si="2">SUM(S8:S12)</f>
-        <v>165</v>
-      </c>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20">
-        <f t="shared" ref="V13:Y13" si="3">SUM(V8:V12)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L16" s="20">
+        <f>SUM(L8:L15)</f>
+        <v>130</v>
+      </c>
+      <c r="M16" s="85">
+        <f>K16-L16</f>
+        <v>-60</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
+        <f>SUM(O8:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="20">
+        <f>SUM(P8:P15)</f>
+        <v>70</v>
+      </c>
+      <c r="Q16" s="21">
+        <f t="shared" ref="Q16" si="0">IF(O16=0,0,(P16-O16)/O16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="98">
+        <f>SUM(S8:S15)</f>
+        <v>235</v>
+      </c>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20">
+        <f t="shared" ref="V16:Y16" si="1">SUM(V8:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:Y2"/>
@@ -5403,7 +5566,7 @@
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="V6:Y6"/>
   </mergeCells>
-  <conditionalFormatting sqref="V9">
+  <conditionalFormatting sqref="V9:V12">
     <cfRule type="expression" priority="1">
       <formula>V9/$Y9</formula>
     </cfRule>
